--- a/Riscos.xlsx
+++ b/Riscos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17967"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12104960\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="5551CDF4472294CA51B3DCCA10CFE9CA4ED93E25" xr6:coauthVersionLast="15" xr6:coauthVersionMax="15" xr10:uidLastSave="{85BE0E1C-C2BE-411E-B80D-778633E4FB86}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="17">
   <si>
     <t>Risco</t>
   </si>
@@ -60,12 +61,18 @@
   </si>
   <si>
     <t>Incentivar os veteranos a aderir a plataforma e em diferentes horários</t>
+  </si>
+  <si>
+    <t>Indisponibilidade de conexão com a Internet no campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicar a universidade sobre o ocorrido e utilizar solução secundária </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,21 +392,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -427,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -439,6 +446,20 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
